--- a/Data/day_place_mapping.xlsx
+++ b/Data/day_place_mapping.xlsx
@@ -355,7 +355,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,8 +374,8 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <f>A3-1</f>
-        <v>45734</v>
+        <f>A3+2</f>
+        <v>45737</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>

--- a/Data/day_place_mapping.xlsx
+++ b/Data/day_place_mapping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,6 +389,15 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>A3+1</f>
+        <v>45736</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/day_place_mapping.xlsx
+++ b/Data/day_place_mapping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -352,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,6 +398,82 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" ref="A6" si="0">A5+1</f>
+        <v>45737</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" ref="A8" si="1">A7+1</f>
+        <v>45738</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45738</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" ref="A10" si="2">A9+1</f>
+        <v>45739</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45739</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" ref="A12" si="3">A11+1</f>
+        <v>45740</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/day_place_mapping.xlsx
+++ b/Data/day_place_mapping.xlsx
@@ -354,8 +354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,7 +391,6 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>A3+1</f>
         <v>45736</v>
       </c>
       <c r="B4" t="s">
@@ -400,7 +399,7 @@
     </row>
     <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45736</v>
+        <v>45737</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -408,8 +407,7 @@
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" ref="A6" si="0">A5+1</f>
-        <v>45737</v>
+        <v>45738</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -417,7 +415,7 @@
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45737</v>
+        <v>45739</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -425,8 +423,7 @@
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" ref="A8" si="1">A7+1</f>
-        <v>45738</v>
+        <v>45740</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
@@ -434,7 +431,7 @@
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45738</v>
+        <v>45741</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -442,8 +439,7 @@
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" ref="A10" si="2">A9+1</f>
-        <v>45739</v>
+        <v>45742</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -451,7 +447,7 @@
     </row>
     <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45739</v>
+        <v>45743</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
@@ -459,8 +455,7 @@
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" ref="A12" si="3">A11+1</f>
-        <v>45740</v>
+        <v>45744</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -468,7 +463,7 @@
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45740</v>
+        <v>45745</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>

--- a/Data/day_place_mapping.xlsx
+++ b/Data/day_place_mapping.xlsx
@@ -19,25 +19,247 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Murdeshwar</t>
-  </si>
-  <si>
     <t>Place Name</t>
   </si>
   <si>
-    <t>Shri Janardhana Swamy Temple</t>
+    <t>Annegudu</t>
+  </si>
+  <si>
+    <t>Ramanathaswamy Temple Rameswaram</t>
+  </si>
+  <si>
+    <t>Periyar Lake</t>
+  </si>
+  <si>
+    <t>Agastya Cave</t>
+  </si>
+  <si>
+    <t>Vainu Bappu Observatory</t>
+  </si>
+  <si>
+    <t>Paramekkavu Bhagavathy Temple</t>
+  </si>
+  <si>
+    <t>Kittur Fort</t>
+  </si>
+  <si>
+    <t>Manjolai</t>
+  </si>
+  <si>
+    <t>Sri Anantha Padmanabha Swamy Temple</t>
+  </si>
+  <si>
+    <t>Thousand pillar temple</t>
+  </si>
+  <si>
+    <t>Bhadrakali Temple</t>
+  </si>
+  <si>
+    <t>Valiyaparamba beach</t>
+  </si>
+  <si>
+    <t>Brihadeeshwarar Temple</t>
+  </si>
+  <si>
+    <t>Nilgri Mountain Railway</t>
+  </si>
+  <si>
+    <t>Kukke Subrahmanya</t>
+  </si>
+  <si>
+    <t>Bekal Fort</t>
+  </si>
+  <si>
+    <t>Lakshmi Narasimha Swamy Temple</t>
+  </si>
+  <si>
+    <t>Ezhimala hill</t>
+  </si>
+  <si>
+    <t>St. Angelo Fort Kannur</t>
+  </si>
+  <si>
+    <t>Chamundeshwari temple</t>
+  </si>
+  <si>
+    <t>Hampi Virupaksha Temple</t>
+  </si>
+  <si>
+    <t>Parassinikadavu temple</t>
+  </si>
+  <si>
+    <t>Akkamahadevi Caves</t>
+  </si>
+  <si>
+    <t>Shikaresvara Temple</t>
+  </si>
+  <si>
+    <t>Vattakottai Fort</t>
+  </si>
+  <si>
+    <t>Courtallam falls</t>
+  </si>
+  <si>
+    <t>Amirthi Forest</t>
+  </si>
+  <si>
+    <t>Mahabalipuram Shore Temple</t>
+  </si>
+  <si>
+    <t>Vizhinjam Rock Cut Cave Temple</t>
+  </si>
+  <si>
+    <t>Meenakshi Amman Temple</t>
+  </si>
+  <si>
+    <t>Sangagiri Fort</t>
+  </si>
+  <si>
+    <t>Pushkarini</t>
+  </si>
+  <si>
+    <t>Mukurthi National Park</t>
+  </si>
+  <si>
+    <t>Chottanikkara Temple</t>
+  </si>
+  <si>
+    <t>50rs Chariott Hampi</t>
+  </si>
+  <si>
+    <t>Pichavaram Mangrove Forest</t>
+  </si>
+  <si>
+    <t>Pattadakkal</t>
+  </si>
+  <si>
+    <t>Sri Mallikarjuna Swamy Temple</t>
+  </si>
+  <si>
+    <t>Bhramaramba Devi Temple</t>
+  </si>
+  <si>
+    <t>Chennakeshwara temple</t>
+  </si>
+  <si>
+    <t>Bogatha Waterfall</t>
+  </si>
+  <si>
+    <t>Venkateswara Cave</t>
+  </si>
+  <si>
+    <t>Horanadu</t>
+  </si>
+  <si>
+    <t>Elephant Junction</t>
+  </si>
+  <si>
+    <t>Pulicat Lake</t>
+  </si>
+  <si>
+    <t>Mysore Palace</t>
+  </si>
+  <si>
+    <t>Warangal Fort</t>
+  </si>
+  <si>
+    <t>Srisailam Tiger Reserve</t>
+  </si>
+  <si>
+    <t>Silent Valley National Park</t>
+  </si>
+  <si>
+    <t>Guruvayur Temple</t>
+  </si>
+  <si>
+    <t>Parassinikadavu snake park</t>
+  </si>
+  <si>
+    <t>ISKCON</t>
+  </si>
+  <si>
+    <t>Kollur Mookambika</t>
+  </si>
+  <si>
+    <t>Chikkmangalur</t>
+  </si>
+  <si>
+    <t>Kovalam Beach</t>
+  </si>
+  <si>
+    <t>Sree Padmanabhaswamy Temple</t>
+  </si>
+  <si>
+    <t>Aihole</t>
+  </si>
+  <si>
+    <t>Kanyakumari</t>
+  </si>
+  <si>
+    <t>Vattakanal</t>
+  </si>
+  <si>
+    <t>Sathuragiri Temple</t>
+  </si>
+  <si>
+    <t>Athirampakkam</t>
+  </si>
+  <si>
+    <t>Srivari Mettu</t>
+  </si>
+  <si>
+    <t>Monolithic Nandi</t>
+  </si>
+  <si>
+    <t>Kalari Kshethra</t>
+  </si>
+  <si>
+    <t>Athirappilly Waterfalls</t>
+  </si>
+  <si>
+    <t>Sathanur Dam</t>
+  </si>
+  <si>
+    <t>Srisailam Dam</t>
+  </si>
+  <si>
+    <t>Vadakkunnathan Temple</t>
+  </si>
+  <si>
+    <t>Main Sanctum - Uma Maheshwari</t>
+  </si>
+  <si>
+    <t>Pathala Ganga</t>
+  </si>
+  <si>
+    <t>Edakkal Caves</t>
+  </si>
+  <si>
+    <t>Gometeshwara</t>
+  </si>
+  <si>
+    <t>Alleppey Backwaters</t>
+  </si>
+  <si>
+    <t>Badami Caves</t>
+  </si>
+  <si>
+    <t>Channapatna</t>
+  </si>
+  <si>
+    <t>Karnataka Khadi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +267,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,14 +302,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -352,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -364,112 +624,624 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45752</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <f>A3+2</f>
-        <v>45737</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>45735</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:2" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45753</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45736</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>45737</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>45738</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>45739</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>45740</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45741</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>45742</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>45743</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>45744</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>45745</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45755</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45756</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45757</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45758</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45759</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45760</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45762</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45763</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45764</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45765</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45766</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45767</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45769</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45770</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45771</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45772</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45773</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45774</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45776</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45777</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45779</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45780</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45781</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45783</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45784</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45785</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45787</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>45788</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>45791</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>45792</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45793</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>45794</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>45795</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>45798</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>45799</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>45800</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>45801</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>45802</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45804</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45805</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45806</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>45807</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>45808</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>45811</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>45812</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>45813</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>45814</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>45815</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>45816</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>45818</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>45820</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>45821</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>45822</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>45823</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>45825</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>45826</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>45827</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>45828</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>45829</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>45830</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>45832</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>45833</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>45834</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>45835</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>45836</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>45837</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>45840</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/day_place_mapping.xlsx
+++ b/Data/day_place_mapping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -612,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B77"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,609 +634,625 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>45752</v>
+        <v>45750</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45753</v>
+        <v>45751</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <v>45752</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45753</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45755</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>45756</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>45757</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="9" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>45758</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>45759</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>45760</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="12" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>45762</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>45763</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>45764</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45765</v>
+        <v>45763</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
+        <v>45764</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45765</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>45766</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="17" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>45767</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="18" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>45769</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>45770</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>45771</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
+        <v>45770</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45771</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>45772</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="22" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>45773</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>45774</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>45776</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>45777</v>
+        <v>45774</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>45779</v>
+        <v>45777</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45780</v>
+        <v>45778</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>45781</v>
+        <v>45779</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
+        <v>45780</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45781</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>45783</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>45784</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>45785</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
+        <v>45784</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45785</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>45786</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>45787</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>45788</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>45790</v>
+        <v>45787</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>45791</v>
+        <v>45788</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
+        <v>45790</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45791</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>45792</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="39" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>45793</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>45794</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+    <row r="41" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>45795</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="42" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>45797</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>45798</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>45799</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45800</v>
+        <v>45798</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>45801</v>
+        <v>45799</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45802</v>
+        <v>45800</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>45804</v>
+        <v>45801</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
+        <v>45802</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45804</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>45805</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>45806</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>45807</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
+        <v>45806</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>45807</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>45808</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+    <row r="53" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>45809</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+    <row r="54" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>45811</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>45812</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>45813</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>45814</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
+        <v>45813</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>45814</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>45815</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+    <row r="59" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>45816</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>45818</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>45819</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
+        <v>45818</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>45820</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+    <row r="63" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>45821</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>45822</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>45823</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>45825</v>
+        <v>45822</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>45826</v>
+        <v>45823</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>45827</v>
+        <v>45825</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>45828</v>
+        <v>45826</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>45829</v>
+        <v>45827</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>45830</v>
+        <v>45828</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>45832</v>
+        <v>45829</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>45833</v>
+        <v>45830</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>45834</v>
+        <v>45832</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>45835</v>
+        <v>45833</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>45836</v>
+        <v>45834</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>45837</v>
+        <v>45835</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>45839</v>
+        <v>45836</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
+        <v>45837</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
         <v>45840</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>77</v>
       </c>
     </row>
